--- a/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_basic_control_by_struct.xlsx
+++ b/analysis/thalamus/results/figures_tables/4-CP_and_medial_posterior_atrophy/all_nuclei_basic_control_by_struct.xlsx
@@ -8,6 +8,8 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CP" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="T2LV_log1p" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PRL" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -678,4 +680,526 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AV_2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.481</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-0.560, -0.401]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>VA_4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.291</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.361, -0.221]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>VLa_5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.227</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.302, -0.152]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>VLP_6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.421</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.505, -0.338]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>VPL_7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.461</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-0.546, -0.375]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Pul_8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.627</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.710, -0.543]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LGN_9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.520</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.614, -0.426]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MGN_10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.469</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.544, -0.395]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CM_11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.391</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.462, -0.320]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MD_Pf_12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.549</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-0.636, -0.462]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>outcome</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>coef</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ci</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>p_fdr</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>AV_2</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>-0.244</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>[-0.319, -0.169]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>VA_4</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>-0.120</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>[-0.212, -0.027]</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.011</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>VLa_5</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>-0.149</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[-0.226, -0.072]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>VLP_6</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>-0.221</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>[-0.297, -0.146]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>VPL_7</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>-0.231</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>[-0.310, -0.152]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Pul_8</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>-0.351</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[-0.434, -0.268]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>LGN_9</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>-0.236</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>[-0.323, -0.149]</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>MGN_10</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>-0.215</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>[-0.287, -0.144]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>CM_11</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>-0.186</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>[-0.257, -0.114]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>MD_Pf_12</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>-0.269</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>[-0.332, -0.207]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.000</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>